--- a/convert.excel/03.articles.xlsx
+++ b/convert.excel/03.articles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
   <si>
     <t>arti_id</t>
   </si>
@@ -380,6 +380,242 @@
   </si>
   <si>
     <t>https://s.yimg.com/ny/api/res/1.2/lQ5l.3SG1c1DQoZVh_p5zQ--/YXBwaWQ9aGlnaGxhbmRlcjt3PTk2MDtjZj13ZWJw/https://media.zenfs.com/no/cmmedia.com.tw/e8d5038428f4127bf46b9cfb7e11bfbc</t>
+  </si>
+  <si>
+    <t>一次搞懂小米智慧家庭！</t>
+  </si>
+  <si>
+    <t>小米這幾年在台灣推出了越來越多與智慧家庭相關的產品，像是小米AI音箱、米家智慧攝影機、米家掃地機器人…等等，這些商品只要連網接入“米家App” 後就可以透過手機進行操作，為使用者體驗加分不少。
+ 但小米能提供給用戶的不僅如此，因為米家產品鏈十分齊全，幾乎所有類型的智能居家裝置皆有販售（僅限陸版產品，台灣還在陸續引進…），因此光靠小米單一品牌就能開始打造智慧家庭了。不過事情也不是這麼簡單，要採用米家生態圈產品來建置智能居家之前，仍有許多要注意的細節。本文接下來會詳細介紹小米的智慧家庭系統，幫助各位判斷“米家智慧家庭” 究竟適不適合自己。
+ 米家智慧家庭是由小米與其旗下廠商共同組成之平台，旨在讓小米生態鏈所有企業的智能裝置能在同一平台共同操作，而“米家App” 即是手機用戶操作這些智能裝置的介面。只要使用者透過“米家App” 將米家裝置添加進“米家智慧家庭”，便能在單一App 中控制接入的智慧裝置，或是透過小米AI音箱內的語音助理“小愛同學” 聲控。
+ 只要將智能裝置接入“米家智慧家庭”，便能在“米家App” 上遙控這些裝置了；另外如果想利用小米音箱裡的小愛同學聲控也行。以上兩個是最基本的應用，至於米家智慧家庭強大之處在於能把多個裝置綁在一起連動，達到更便利的操作，甚至做到家庭自動化。
+ 簡單來說，使用者可以在App 設定“如果某個條件滿足時” 就“執行某項動作”。其中的“某個條件” 可以是到達某地點、到指定時間、室外天氣有變化時、智能感應器被觸發…等；至於“執行某項動作” 可以是打開、關閉、啟動，甚至多項裝置一起動作。以下舉幾個簡單例子：
+ 每天早上7點一到，就把窗簾跟電燈打開
+ 如果室外空氣太糟，就開啟空氣清淨機
+ 如果溫濕度感應器測到溫度高於29度，就把空調跟電扇都打開
+ 若外出時門窗感應器被觸發，就傳送通知到手機並啟動警報器聲響
+ 總之，能自己設定的“智慧” 玩法多到數不清，想怎麼安排就看自己有怎樣的需求。</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/%E5%B0%8F%E7%B1%B3%E6%99%BA%E6%85%A7%E5%AE%B6%E5%BA%AD%E6%87%89%E7%94%A8.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/%E6%94%AF%E6%8F%B4%E7%B1%B3%E5%AE%B6%E7%9A%84%E8%A3%9D%E7%BD%AE.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/%E7%B1%B3%E5%AE%B6App%E6%96%B0%E5%A2%9E%E8%A3%9D%E7%BD%AE.png</t>
+  </si>
+  <si>
+    <t>在台灣如何使用Amazon Alexa 教學及介紹</t>
+  </si>
+  <si>
+    <t>當你開始建立智慧家庭時，會發現除了“Works with Apple HomeKit“、 “Works with the Google Assistant“之外，智慧裝置產品上常常還會有”Works with Amazon Alexa“這個標誌。Alexa其實就是Amazon智慧音箱中內建的語音助理，就如同iPhone中的Siri、Android手機中的Google助理那樣。
+ 其實在歐美，使用Amazon Alexa來控制家中智慧裝置的人數遠比使用Google Assistant跟Apple Homekit還多。但在台灣，由於Alexa官方並不支援中文，甚至連App Store跟Google Play Store都沒辦法下載要開始使用Alexa的App－「Amazon Alexa」，導致Alexa在台灣並不流行。
+ 想要透過智慧音箱Amazon Echo來控制智慧家庭裝置前，都要先透過Amazon Alexa App來設定與Alexa相容的裝置，將不同廠商的智慧裝置授權給Amazon Alexa才能開始使用；開始使用Amazon Echo前同樣也需要先將其加入Amazon Alexa App。「Amazon Alexa」的作用就是將不同智慧裝置整合到同一介面，方便使用者操作。
+ 但這當然不是Amazon Alexa App唯一的功能，它還有其他很多功能，像是播音樂、查天氣、排行程、通話、還有許多第三方開發者寫出來的應用程式Alexa Skills可以使用。簡單來說，就像手機App那樣，只要把要用到的應用程式Alexa Skills加到Amazon Alexa App中，就能在手機、智慧音箱Amazon Echo上利用聲控來使用這些應用程式。
+ 由於台灣App Store中並沒有Amazon Alexa，因此要使用美國的Apple ID登入，才能在App Store下載。首先，要先到Apple ID 帳號頁面，在頁面的右下角將國家改成美國，接著點選右上角“創立Apple ID”並將基本資料填寫完成。
+ 登入時需要Amazon帳號，第一次使用要建立一個新的帳號，帳號資料輸入完成後一樣會有驗證碼寄到信箱，驗證成功即可開始使用Amazon Alexa。另外，如果有在使用Amazon購物，Amazon購物的帳號也可以用來登入Amazon Alexa。
+ 想要透過Amazon Alexa來操作智能居家產品的話，首先一定要選擇“Works with Amazon Alexa”的標誌，比較可惜的是因為官方Amazon Alexa並沒有在台灣開放，因此在台灣有支援Amazon Alexa的產品就沒有太多，想要購買不論是Amazon Echo還是支援Alexa的產品，就只能透過代購或是跨國購物平台。再來是官方目前也不支援中文，因此僅能透過英文來操作，想要透過中文聲控的朋友就不太推薦。</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/amazon-echo-800x500.jpg</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/amazon-alexa-app-1.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/apple-ID.png</t>
+  </si>
+  <si>
+    <t>Apple HomeKit vs Google Home vs Amazon Alexa 三大智慧家庭平台該怎麼選擇</t>
+  </si>
+  <si>
+    <t>如果你正在使用多種不同智慧家庭裝置打造你的智能家居，你一定會希望有個App能夠用來控制所有你買來的智慧家庭裝置，並且整合不同廠商間的裝置，讓它們可以一起被操作。而Apple HomeKit、Google Home、跟Amazon Alexa這三大智慧家庭平台就是為此存在的。
+ 這三大平台都可以有效整合不同廠商的智慧裝置，讓我們在操作時更加便利流暢。但究竟哪一個平台比較適合你呢？接下來我們會從操作三大平台所需的裝置、如何操作智慧裝置、支援三大平台的智慧裝置、以及各自的特色這幾個方面，來比較Apple HomeKit、Google Home、Amazon Alexa之間的差異。
+ 要控制支援HomeKit的智慧裝置，需要有Apple的產品iPhone或Mac才能做到。而且，如果想要不在家也能控制HomeKit裝置、或是使用自動化功能（像是開門就開燈、太潮濕就開除濕機…等等），則需要iPad、HomePod或Apple TV做為家庭智慧中樞才能做到。
+ 要控制支援Google Assistant的智慧裝置，可以透過智慧音箱Google Home、Google Home mini等系列產品；也可以使用Android或iOS手機上的Google Home App或Google助理來達成。
+ 三個平台都可以透過手機觸控、手機聲控、智慧音箱聲控來操作支援各自平台的智能居家裝置。但在台灣使用則要注意是否有支援中文介面、中文聲控。
+ 選擇HomeKit平台，要有Apple的產品iPhone、iPad或Mac才能開始。內建在這些Apple產品的“家庭App” 是中文介面，點開即可直接操作。聲控部分，iPhone、iPad、Mac、Apple Watch都有內建Siri語音助理，透過“Hey, Siri”就能直接喚醒Siri並開始操作，同樣支援中文聲控。至於HomePod 已於19年8月在台正式販售囉，當然也有支援中文語音！
+ 選用Google Home平台，Android跟iOS系統的手機都可以觸控和聲控，而且皆支援中文，差異是Android用戶可以直接透過“OK, Google”來喚醒Google助理；但iOS用戶要先打開Assistant App才能開始聲控，在使用上就沒那麼順暢，畢竟在iOS系統中Siri才是原生的助理。智慧音箱的部份，Google 終於在台推出首款講中中文的音箱Google Nest Mini 了！
+ 至於Amazon Alexa平台，同樣Android跟iOS系統皆有支援，但在台灣並未開放Amazon Alexa App的下載，要使用Amazon Alexa只能透過國外應用程式帳戶來下載，也因此Amazon Alexa的操作介面並沒有支援中文。手機聲控部分，雖然在Android跟iOS上都有支援，但Alexa在這兩個系統都不是原生的語音助理，因此沒辦法對手機直接說“Alexa”就喚醒她，還是需要先打開Amazon Alexa App才能開始溝通。智慧音箱Amazon Echo系列才是Alexa的主場，透過Amazon Echo來操作智能居家產品才不會有像手機操作那樣不順暢。可惜的是不論手機還是智慧音箱聲控，目前也都沒有支援中文語音。</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/smart-home-platform-800x500.jpg</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/homekit-1-1.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/google-home-1.png</t>
+  </si>
+  <si>
+    <t>SmartThings Hub 開箱！輕鬆打造居家保全及家庭自動化系統</t>
+  </si>
+  <si>
+    <t>如果你是Google Home 的使用者，且平常也有在利用Google 助理聲控智慧開關、智慧冷氣控制器、智慧燈泡…等裝置，應該就會發現如果想要進一步讓自己的家更智能，譬如要設定“當一進屋電燈就自己打開” 或是“當室內溫度太高就調低空調溫度” 等家庭自動化情境時，是沒有辦法透過Google Home App 達成的，因為感測器類型的產品根本無法直接接入Google 智慧家庭平台中。
+ 而三星的SmartThings Hub 剛好補足了Google Home 無法用感測器觸發自動化的這項缺點。這台SmartThings Hub 即是智慧家庭中樞，能將各式智慧家庭裝置與感測器連結在一起，如此便可以做到感測器觸發自動化等情境。而且，因為智慧感測器可以接入這台Hub，所以想自己DIY 居家保全系統也不是不可能。究竟SmartThings Hub 適不適合你，耐心看完本文就會知道囉！
+ 我們在先前的文章“為什麼要選擇三星SmartThings Hub 的5個理由” 就有詳述SmartThings Hub 的功能及特色，有興趣可以參考看看。本文接下來的段落也會說明到這些功能，同時著重於教大家如何設定。為了不讓各位混亂，這邊先將SmartThings Hub 的三個主要功能列出來，分別是：
+ 輕鬆連接智慧感測器、智慧攝影機打造居家保全系統
+ 能結合智慧感測器與其他智慧裝置打造家庭自動化系統
+ 支援Google Assistant 或Amazon Alexa 語音控制
+ SmartThings Hub 不但支援自家推出的智能裝置，也支援多達60 家廠商約400 項產品，算是目前市面上整合度很高的一款智慧中樞。其中打造智能居家會用到的產品項目，大多都有對應的支援品牌。這裡簡單整理如下：
+ 智慧燈泡：Philips Hue、Sengled、SYLVANIA、IKEA …
+ 智慧開關：Lutron Caseta、Honeywell、Leviton …
+ 智慧插座：TP-Link Kasa、iHome …
+ 智慧攝影機：Arlo、Ring
+ 智慧門鎖：Yale、August、Schlage、Kwikset …
+ 智慧感測器：Fibaro、Ecolink …
+ 至於SmartThings 自家產品，則包含了燈泡、攝影機、插座、門窗感測器、移動感測器…等等。想知道完整的支援清單，可以到SmartThings 官網支援列表查看。
+ 因為SmartThings Hub 在台灣買不到，因此建議到美國亞馬遜購買，不過這項產品亞馬遜沒辦法直送台灣，因此需要搭配國際代運服務，請代運商將產品寄送回台灣。
+ 產品包裝盒的正面就是SmartThings Hub 的照片，底下的敘述直接寫道這台Hub 的作用是“連接各式的智能裝置且讓它們彼此連動操作”。背面是簡單介紹支援的裝置，有燈泡、攝影機、門鎖、感測器…等等，且接入SmartThings 的裝置可以再一起接入Google 或Amazon 的智慧家庭平台，如此便能利用Google 助理或Alexa 聲控接入的裝置。
+ 包裝側面則印有支援SmartThings Hub 知名品牌的logo，像是門鎖品牌Schlage 及Yale、智慧開關Honeywell、音響品牌Bose、攝影機大廠Arlo 及ring、還有智慧燈泡品牌Philips Hue…等。
+ 盒子一打開就可以看到SmartThings Hub ，它所佔的空間不大，約13x13x3公分，跟一個手掌差不多大。而Hub 的機身共有3個插孔，分別為電源充電孔、有線網路孔以及USB 孔。網路孔讓Hub 可以直接用乙太網路線與路由器對接，不過也可以選擇用WiFi 的方式連線；至於USB 插孔目前似乎還沒有實際作用。</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/smartthings-hub-3--800x500.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/smartthings-devices.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/smartthings-hub-unbox-01.png</t>
+  </si>
+  <si>
+    <t>LifeSmart 網關（智慧中心）正式支援HomeKit 了</t>
+  </si>
+  <si>
+    <t>LifeSmart云起是一間總部在大陸的智能家居廠商，而且在台灣也有LifeSmart 智慧家庭系統相關產品的代理。該廠商所推出的智慧裝置品項還算齊全，從智慧燈泡、智慧開關、智慧門鎖、智慧攝影機到智慧感測器樣樣都有。
+ 而早在2017年，LifeSmart 就宣稱他們的智慧燈泡、移動感測器、門窗感應器…等裝置可以通過“智慧中心”（或稱網關）來接入Apple HomeKit，工作原理與Aqara網關十分類似。不過，當時的問題是該款“智慧中心” 並沒有經過Apple 的官方認證，LifeSmart 僅使用自家的應用程式產生HomeKit 代碼，藉此來接入HomeKit。而且後來那款應用程式也不見了，據說是Apple 堅持將其下架的。
+ 就在今年9月底左右，LifeSmart 取得了蘋果的合法認證，讓旗下的多項產品順利正式的支援Apple HomeKit 。而前幾天他們的官網則更新了有支援HomeKit 的產品頁面，包含了智慧感測器、智慧開關、智慧插座、智慧燈泡…等，如下圖整理所示。且與先前相同，這些裝置需要搭配“智慧中心” 的使用才能接入HomeKit（跟裝置間的通訊協定有關）。
+ 比較可惜的是，LifeSmart 其實也有推出智慧門鎖、智慧攝影機…等智慧家庭配件，不過這些產品就沒有支援Apple HomeKit 了。但是LifeSmart 多款感測器的支援，讓HomeKit 使用者又多了一家可以選擇的品牌。畢竟這些智慧感測器裝置是打造完全自動化智能家庭的關鍵，能有多一點的選擇對消費者來說當然更好囉！</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/lifesmart-%E6%99%BA%E6%85%A7%E4%B8%AD%E5%BF%83-800x500.png</t>
+  </si>
+  <si>
+    <t>https://playsmarthome.com/wp-content/uploads/%E6%BA%AB%E6%BF%95%E5%BA%A6%E6%84%9F%E6%87%89%E5%99%A8.png</t>
+  </si>
+  <si>
+    <t>智慧家庭是什麼？5個你一定要知道的應用層面及智慧裝置</t>
+  </si>
+  <si>
+    <t>「Hey Siri~」是你呼叫 iphone 個人助理的指令，但你有想過，坐在客廳的沙發，也能這樣呼喚各種家電，並跟你的虛擬家庭助理對話嗎？透過裝設智慧家庭設備，再與家中的電路系統整合，最後連動你的行動裝置，便能實現安全、便利、降低生活開銷、提升生活品質的理想，甚至連娛樂都能全面升級，不再是使用者單向的對著大螢幕，而是能體驗前所未有的感官刺激。
+ 智慧家庭介紹｜家電連上網路就是智慧家庭？
+ 智慧家庭並不是盲目地導入更先進的科技到家中，也不是把所有家電都連上網路，而是能有效解決家庭成員問題，甚至提高生活品質的生活解決方案。以下是來自MBA百科的智慧家庭定義「智慧家居也稱智慧住宅，是以住宅為平臺，兼備建築、網路通訊、訊息家電、設備自動化，集系統、結構、服務、管理為一體的高效、舒適、安全、便利、環保的居住環境。智慧家居利用先進的電腦技術、網路通訊技術、綜合佈線技術，將與家居生活有關的各種子系統有機地結合在一起，透過統籌管理，讓家居生活更加舒適、安全」。
+ 智慧家庭使用評估｜為什麼需要智慧家庭？
+ 有些人可能時常長時間不在家，或者家裡有嬰幼兒、寵物需要掌握狀況，亦或是想提升環境的生活機能，這時候針對自身需求可選擇不同的智慧家庭設備做增添，解決空間上的困境。
+ 例如你希望提升家庭影音設備的操作方便性，透過智慧家庭裝置，只要輕觸一個按鍵或是只需開口，就能將家中普通影音收聽模式轉換至劇院模式，將切換過程智慧化、簡單化。
+ 智慧家庭5大應用層面｜帶來便利與安全性的同時，還能節省生活成本
+ 智慧家庭除了能符合最基本的生理安全需求，也能節省家庭開銷，甚至能滿足娛樂需求。另外，智慧家庭的設備可根據家庭成員不同的生活習慣與作息，來調整不同裝置的配置及整合，滿足一整個家庭老少幼嬰的各種需求。
+ 智慧家庭應用1｜保障家中安全
+ 在家庭危安事件中，許多案例往往是一時疏忽所造成的，例如瓦斯忘了關、門沒有鎖好。而智慧家庭能做的便是縮短家庭成員對危險的反應時間，甚至是提前預防災害的發生。例如智慧攝影機，能裝設在家中大門外，可以透過影像辨識及自然語意分析來辨別是否有陌生人接近，甚至能判斷靠近的人物是否會對家庭成員造成危害，或對家庭做出傷害動作。
+ 智慧家庭應用2｜提升生活品質
+ 我們因為生活的忙碌，而錯過許多重要的事，譬如與伴侶的美好時光、帶毛小孩散步的時間、陪孩子唸故事書的時間。若是家中的智慧家電能先做好這些準備，便能防止這些珍貴時光被犧牲。例如晚上回家前智慧電鍋自動幫你把前一晚放進去的生米煮成熟飯，還能依照吃飯情境，例如與伴侶的紀念日，自動調整燈光昏暗程度、利用智慧音箱播上兩人最愛的主題曲。
+ 智慧家庭應用3｜降低生活成本
+ 生活上我們時常因為估錯用量，而造成不必要的浪費，例如膠囊咖啡機，常常丟了好幾顆膠囊進去，連按鈕都還來不及按，就去忙別的事了，兩三顆全新的膠囊就這麼被丟入回收槽。智慧家電能幫你做到的，便是在你遺忘已啟動的膠囊咖啡機時，跳出通知提醒你咖啡還沒喝，省下耗材費。
+ 除了生活耗材外，電費也佔家庭開銷的大部分，尤其在台灣夏季用電最兇的時候，電費更是貴得嚇人。然而只要透過將感測器（sensor）全部連上網路，時時監測用電量，並提醒家庭成員，應在哪處用電多注意節能，來達到政府獎勵節能的標準。常見的節能系統包含電器插頭、燈泡與溫控系統等等，通常會與 App 連動，而 App 蒐集出的家電用電量彙整能提供家庭成員全方位的報告，針對用電時間、不同電器的用電方式，該做出何種調整，有很大的幫助。
+ 智慧家庭應用4｜居家照護
+ 高齡化加上少子化雙重衝擊的時代，導致家中沒有足夠的青壯年照顧年長者，這時智慧家電搭配智慧穿戴裝置便能減輕青壯年負擔。智慧家庭裝置在居家照護的相關應用上有「床感測器」，可以偵測年長者是否臥床過久，搭配穿戴裝置能監測心跳，若有緊急狀況發生，會通知照護者的行動裝置。此外，年長者如果時常忘記按時服藥及量測血壓，智慧藥盒能在吃藥時間到，卻沒有減少重量時發出警示聲音，而智慧血壓機也能發出聲音提醒年長者該量測血壓了。
+ 除了年長者，家中剛出生的嬰兒、或是年幼的孩子，也能透過智慧家庭整合來幫助家長更體貼地照顧他們。例如智慧奶瓶能夠告訴你溫度是否過高，智慧搖籃能自動模擬母親懷中的安撫頻率；而在孩子接近高功率家電如電磁爐，或是電風扇時，能發出警示提醒家長孩子可能有危險，也提醒孩子不要再靠近。
+ 智慧家庭應用5｜沈浸式娛樂
+ 隨著人工智慧發展越來越成熟，家庭語音助理也越加實用。只要跟你的虛擬助理對話，他便能開啟結合了各大串流媒體的智能電視，再串連至手機，讓遠在不同地方的朋友能一起進行遊戲對戰，還能設定不同情境，例如在播放星際大戰電影時，即自動拉起窗簾，調整室內燈光，如同置身宇宙，讓使用者更能享受沈浸式的娛樂體驗。</t>
+  </si>
+  <si>
+    <t>https://panyi-architecture.com/wp-content/uploads/2020/09/image1.jpg</t>
+  </si>
+  <si>
+    <t>https://panyi-architecture.com/wp-content/uploads/2020/11/%E9%9B%B2%E7%AB%AF%E6%94%9D%E5%BD%B1%E6%A9%9F.jpg</t>
+  </si>
+  <si>
+    <t>https://panyi-architecture.com/wp-content/uploads/2020/11/%E6%99%BA%E6%85%A7%E7%87%88%E6%B3%A1.jpg</t>
+  </si>
+  <si>
+    <t>科技只帶來疏離感？3種陪伴型機器人，與你聊天排解孤單</t>
+  </si>
+  <si>
+    <t>是否想過購入一台機器人幫你處理生活大小事？人工智慧生活的運用已漸漸普及。美國財經科技新聞網指出，消費性機器人（針對個人服務或使用的機器人）的成長速度將在2019年高於製造型機器人7倍。
+ 豐田汽車Toyota於今年10月初也發表一台針對關懷照護、陪伴需求增長而開發的小型陪伴機器人Kirobo Mini。
+ 1.Kirobo Mini，寂寞駕駛員的聊天好夥伴
+ Kirobo Mini是一個虛擬陪伴機器人。身長10公分、體重183克的Kirobo Mini可透過內建的聲音辨識器及攝影鏡頭感測使用者的臉部表情，做出適當的回應。
+ 假設你獨自一人開車回家，想在車上盡情找人聊天，面對你的只有道路和充滿廣告的電台廣播，應該會覺得寂寞難耐吧？這時Kirobo Mini就像會說話的寵物般成為你的最佳陪伴者。
+ 另外，Kirobo Mini也可以連接汽車的導航系統，了解旅途資訊，甚至能在到達目的地時稱讚使用者：「辛苦了！你完成一趟遙遠的旅程。」這些貼心的舉動減輕駕駛開車的緊張感，並協助掌握行車狀況。Kirobo Mini的出現源自於Toyota心計畫（Toyota Heart Project）。計畫目標是讓人類與人工智慧一起為世界創造美好的未來。根據Toyota官網表示，由於人的一生平均會花上4.3年的時間待在車上，相當於地球到月亮來回3次的時間。因此，Toyota與曾是Sony旗下的電腦公司品牌VAIO共同開發出這款模樣相當可愛的Kirobo Mini，陪伴使用者在生活寂寞之餘一個可以一起聊天的夥伴。
+ 2.陪伴型機器人PARO和Leka為醫療產業帶來曙光
+ 除了Kirobo Mini，許多廠商也看準機器人在醫療領域的商機，紛紛推出陪伴年長者或是有特殊需求的病患不同功能的陪伴型機器人，其中又以機器人PARO和Leka最值得注意。
+ 美籍印度裔男星Aziz Ansari與華裔編劇Alan Yang合寫的半小時情境喜劇《Master of None》第八集曾出現一隻玩具機器海豹。這隻海豹的出現是為了陪伴年長者以及需要特殊照顧的使用者。而這隻海豹在現實世界中是確實存在的！它的名稱是PARO。這隻可愛的海洋哺乳類機器動物有各式的感測器，可根據觸摸、光線和溫度產生不同的回應。
+ PARO是由日本工業技術院智能系統研究所的Takanori Shibata發明的治療用機器豎琴海豹。由於他可愛的模樣深受眾人喜愛，所以在許多醫院和療養院都可以看見PARO的身影。類似於心理治療中的動物治療法，PARO的陪伴能夠讓年長者降低憂鬱、減少孤獨並且找回和家人之間相處的回憶，進而改善長照問題。
+ 2012年，美國疾病管制局根據全美11州的8歲小孩調查顯示，每68位孩子中就有1位是自閉症孩童，此比率也有逐年上升的趨勢，雖然自閉症沒有特效藥治療，但還是可以透過自閉症療法緩解疾病的發生率。一群位於法國巴黎的工程師團隊為自閉症兒童打造一台陪伴型機器人Leka，提供自閉症孩童更好的照顧。
+ Leka是一個互動式機器人，它可以陪伴孩子，讓患有自閉症的孩子可以不用照顧者在旁邊也可以自己玩樂，訓練孩子與周圍環境建立關係。
+ 機器人讓人類不再孤獨嗎？
+ 機器人是科技世代的產物，陪伴型機器人的出現確實增進社會福祉。然而，看似增進人類交流的虛擬科技真的能夠凝聚人心嗎？ 全球市調指出，1985年，10%的美國人說他們沒有任何一位知己，然而這個數字到了現在卻上升至25%。
+ 臉書上擁有的幾百位好友，又有哪幾位是你在現實中一起聊天的朋友？就在世界心理健康日（10月10日）前夕，澳洲防止自殺熱線服務Lifeline調查發現超過80%的澳洲人認為社會變得更加孤獨，雖然我們不能透過此項調查推斷科技就是造成孤獨感的元凶，但是我們還是必須正視數位時代對於情感世界帶來的影響，科技本身是中立的，端看我們怎麼使用它。
+ 機器人已成為21世紀一個重要發明。在台灣，鴻海集團代工生產的機器人Pepper可以根據不同企業需求，開發客製化服務；華碩的Zenbo管家型機器人可以與家中的 IoT 物聯網產品（例如智慧廚具、電話等）相連，提醒日常行程、唸出食譜還可以說床邊故事給孩子聽。Toyota的Kirobo Mini更為駕駛人帶來更舒適的行車感受。</t>
+  </si>
+  <si>
+    <t>https://www.seinsights.asia/sites/default/files/imagecache/node_main_img/upload/epaper/1080x682_0.png</t>
+  </si>
+  <si>
+    <t>https://www.seinsights.asia/sites/default/files/imagecache/content_img_upscaling/upload/epaper/toyotapic3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.seinsights.asia/sites/default/files/imagecache/content_img_upscaling/upload/epaper/toyotapic5.jpg</t>
+  </si>
+  <si>
+    <t>情感慰藉是最大功能！日本新機器人設計「lovot」，不只裝萌討抱還會吃醋！</t>
+  </si>
+  <si>
+    <t>日本公司 GrooveX 日前推出最新機器人「lovot」預售活動。「lovot」由 love（愛）和 robot（機器人）兩個字組成，是款不以實用功能為主，而以「情感陪伴」為主的機器人。它不會幫忙做家事，但會向主人討抱、裝萌，甚至還會吃醋。
+ 「lovot」最主要的設計是與人類互動，因此對於接觸時的觸感、情感表達的設計格外講究。圓滾滾的身體覆上溫柔的毛絨，這層皮膚設有多達50個傳導器，讓它能透過深度學習技術（Deep Learning FPGA）即時作出反應。頭頂上有個傳導觸角，內置360度半球式攝影機、麥克風、熱感照相機，幫助它辨認人類、認出主人。刻意的地方還有，每只「lovot」重約3千克左右，相當於普通嬰兒的體重，它也能被抱在懷裡。而情感表達最重要的眼睛，設有6層光源，可以靈活地做出包含眼球移動、不同速度的眨眼、瞳孔寬度調整等細節，彷彿動物或嬰兒般，展露純真的眼神。
+ 被撫摸時，「lovot」會透過眼神和肢體動作顯露開心的情緒，還會有如孩童般的音效。除此之外，GrooveX 還設定了「嫉妒」和「索取情緒」的能力。也就是，若主人同時擁有兩隻「lovot」，只擁抱其中一隻時，另一隻會「嫉妒」，會跑上前來討要同樣的情感慰藉。它們也跟小嬰兒和寵物一樣，不管主人忙不忙，就算主人在忙，它們也會緊緊跟隨，直到得到關注。
+ 目前「lovot」推出兩隻一組的預售價，為 598,000 日圓，將從2019年第三季之後開始出貨，想買單隻的則要等到2020年。</t>
+  </si>
+  <si>
+    <t>https://media.bnextmedia.com.tw/image/album/2018-12/img-1545740292-52539@900.jpg</t>
+  </si>
+  <si>
+    <t>https://media.bnextmedia.com.tw/image/album/2018-12/img-1545740275-86219@900.jpg</t>
+  </si>
+  <si>
+    <t>https://media.bnextmedia.com.tw/image/album/2018-12/img-1545740278-86675@900.jpg</t>
+  </si>
+  <si>
+    <t>英國養老院引進AI陪伴機器人</t>
+  </si>
+  <si>
+    <t>草根影響力新視野 喬依絲編譯
+ 日新月異的AI科技不僅讓人類生活更便利，還可以進行簡單的對話並了解人們的興趣。不只如此，一項國際試驗發現這類機器人還有助改善人類心理健康及減少孤獨感，英國部分養老院已引進這款會表達情緒的機器人“Pepper”。
+ Pepper可獨立移動並用機械手臂和雙手進行手勢表達，旨在更具文化能力。經過一些初步編程後，它們可以了解養老院居民的興趣和背景，因此可以與老人們進行基本的對話、播放他們所喜愛的音樂、教導他們語言以及提供包括提醒服藥等實用的幫助。
+ 由英國貝德福德郡大學(University of Bedfordshire) Chris Papadopoulos博士所領導的研究團隊表示，這項試驗的目的不是為了用機器人來替代人類看護者，而是為了填補老人無工作人員或家人陪伴的孤單時段。試驗是在英國和日本進行，由歐盟委員會和日本政府資助的一項230萬英鎊研究專案的其中一部分。試驗發現養老院中與機器人互動長達兩週(共18小時)的老年人，其心理健康狀況得到了顯著改善。不過老人們回應，這些機器人的對話略顯膚淺並且缺豐富性，缺乏個性化和足夠的文化意識，此外，機器人的頭部動作和手勢有時會分散注意力。
+ 英國最大間癡呆症護理之家的Advinia Healthcare參與了本次試驗，該機構表示「正在努力將機器人納入弱勢人群的常規護理中，以減少焦慮和孤獨感，並提供持續性的關懷」。Advinia負責人Sanjeev Kanoria博士說 :「我們現在正努力將機器人帶入日常照護中，因此它對老年人及其家人會發揮真正的幫助。這些機器人不會直接導致裁員，但非常值得引進，因為更快樂的居民意味著員工工作量減少以及住戶滿意度提高，進而提升居住率。
+ 在Covid-19疫情爆發之前，英國護理行業至少有12萬個空缺，員工們精疲力竭，導致成本飆升和入住率下降，許多經營者正面臨財務困​​難帶來的壓力。一個附有軟體的機器人成本約為19,000英鎊(台幣71.2萬元)，比英格蘭東南部一名護理人員的平均工資高出1,000英鎊(台幣3.7萬元)，但也有其他更便宜的機器人可選擇。
+ 代表最大醫療服務提供者的Care England表示，這些機器人不太可能取代工作人員，但可能有助於與居民建立更深層次和更高質量的關係。這對全球高齡化社會的生活品質將有所助益。
+ Reference : 
+ Robots to be used in UK care homes to help reduce loneliness</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=http%3A%2F%2Ftw.systex.com%2Fpepper%2F&amp;psig=AOvVaw2C9KhsMgr1XTyYjtIZj4mi&amp;ust=1629460324189000&amp;source=images&amp;cd=vfe&amp;ved=0CAsQjRxqFwoTCLCb4vCCvfICFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.eprice.com.tw%2Ftech%2Ftalk%2F1141%2F4912109%2F1%2F&amp;psig=AOvVaw2C9KhsMgr1XTyYjtIZj4mi&amp;ust=1629460324189000&amp;source=images&amp;cd=vfe&amp;ved=0CAsQjRxqFwoTCLCb4vCCvfICFQAAAAAdAAAAABAT</t>
+  </si>
+  <si>
+    <t>https://www.taiwanhot.net/wp-content/uploads/2017/01/586bab5d54732.jpg</t>
+  </si>
+  <si>
+    <t>四大車站引進Pepper站務員 提升智慧化便民服務</t>
+  </si>
+  <si>
+    <t>台鐵百年老店首度引進智慧機器人，為提升旅客服務品質，台鐵與亞太電信合作，在台北、台中、高雄、花蓮車站，引進多國語言的Pepper擔任站務員，讓旅客體驗不一樣的服務，於今天下午1時31分舉行授帽儀式。在活動結束後Pepper立即踏上工作崗位，民眾也可與Pepper現場互動，體驗台鐵智慧化便民服務。
+ 這名來自日本的新進員工，Pepper，身高121公分、體重29公斤，充電後「續航力」可工作8至12小時，具有靈活關節與偵測感應器，即日起，每天上午9時至下午6時，在各站服務台前，提供「迎賓問候」、「教育娛樂」、「資訊查詢」及「路政宣導」等核心功能，營造友善服務空間。
+ 除了中文外，Pepper也能以英、日文跟旅客溝通，除了增加旅客新奇有趣的互動體驗，更提供平交道安全宣導等服務，以往站員面對同一個問題，1天可能需回答超過1000次，由於Pepper的加入，將可減輕站務員負擔，也能讓旅客感到新鮮有趣。</t>
+  </si>
+  <si>
+    <t>https://images.chinatimes.com/newsphoto/2018-06-08/1024/20180608003665.jpg</t>
+  </si>
+  <si>
+    <t>https://cimg.cnyes.cool/prod/news/4666595/l/b3efddce35751831d411d6c1ec922b6e.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fzh.wikipedia.org%2Fwiki%2FPepper&amp;psig=AOvVaw2C9KhsMgr1XTyYjtIZj4mi&amp;ust=1629460324189000&amp;source=images&amp;cd=vfe&amp;ved=0CAsQjRxqFwoTCLCb4vCCvfICFQAAAAAdAAAAABA0</t>
   </si>
 </sst>
 </file>
@@ -931,16 +1167,236 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1"/>
-    <row r="15" ht="18.75" customHeight="1"/>
-    <row r="16" ht="18.75" customHeight="1"/>
-    <row r="17" ht="18.75" customHeight="1"/>
-    <row r="18" ht="18.75" customHeight="1"/>
-    <row r="19" ht="18.75" customHeight="1"/>
-    <row r="20" ht="18.75" customHeight="1"/>
-    <row r="21" ht="18.75" customHeight="1"/>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1"/>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14">
+        <v>9913.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15">
+        <v>9914.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16">
+        <v>9915.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17">
+        <v>9916.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18">
+        <v>9917.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19">
+        <v>9918.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20">
+        <v>9919.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21">
+        <v>9920.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22">
+        <v>9921.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23">
+        <v>9922.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="24" ht="18.75" customHeight="1"/>
     <row r="25" ht="18.75" customHeight="1"/>
     <row r="26" ht="18.75" customHeight="1"/>
@@ -1951,7 +2407,36 @@
     <hyperlink r:id="rId29" ref="E12"/>
     <hyperlink r:id="rId30" ref="D13"/>
     <hyperlink r:id="rId31" ref="E13"/>
+    <hyperlink r:id="rId32" ref="D14"/>
+    <hyperlink r:id="rId33" ref="E14"/>
+    <hyperlink r:id="rId34" ref="F14"/>
+    <hyperlink r:id="rId35" ref="D15"/>
+    <hyperlink r:id="rId36" ref="E15"/>
+    <hyperlink r:id="rId37" ref="F15"/>
+    <hyperlink r:id="rId38" ref="D16"/>
+    <hyperlink r:id="rId39" ref="E16"/>
+    <hyperlink r:id="rId40" ref="F16"/>
+    <hyperlink r:id="rId41" ref="D17"/>
+    <hyperlink r:id="rId42" ref="E17"/>
+    <hyperlink r:id="rId43" ref="F17"/>
+    <hyperlink r:id="rId44" ref="D18"/>
+    <hyperlink r:id="rId45" ref="E18"/>
+    <hyperlink r:id="rId46" ref="D19"/>
+    <hyperlink r:id="rId47" ref="E19"/>
+    <hyperlink r:id="rId48" ref="F19"/>
+    <hyperlink r:id="rId49" ref="D20"/>
+    <hyperlink r:id="rId50" ref="E20"/>
+    <hyperlink r:id="rId51" ref="F20"/>
+    <hyperlink r:id="rId52" ref="D21"/>
+    <hyperlink r:id="rId53" ref="E21"/>
+    <hyperlink r:id="rId54" ref="F21"/>
+    <hyperlink r:id="rId55" ref="D22"/>
+    <hyperlink r:id="rId56" ref="E22"/>
+    <hyperlink r:id="rId57" ref="F22"/>
+    <hyperlink r:id="rId58" ref="D23"/>
+    <hyperlink r:id="rId59" ref="E23"/>
+    <hyperlink r:id="rId60" ref="F23"/>
   </hyperlinks>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId61"/>
 </worksheet>
 </file>